--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5530" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -483,10 +507,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -530,28 +554,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3">
+      <c r="A14" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="3">
+      <c r="C14" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -576,28 +600,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="3">
+      <c r="B16" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="3">
+      <c r="G16" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="3">
+      <c r="I16" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -656,10 +680,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -703,28 +727,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="3">
+      <c r="A20" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="3">
+      <c r="C20" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -749,28 +773,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="3">
+      <c r="I22" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -916,10 +940,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -963,28 +987,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="3">
+      <c r="C29" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1009,28 +1033,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1205,10 +1229,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1252,28 +1276,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="3">
+      <c r="A39" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="3">
+      <c r="C39" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="3">
+      <c r="G39" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1298,28 +1322,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="3">
+      <c r="I41" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1378,10 +1402,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1425,28 +1449,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="3">
+      <c r="C45" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1471,28 +1495,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1551,10 +1575,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1598,28 +1622,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="3">
+      <c r="C51" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1644,28 +1668,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1782,10 +1806,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1829,28 +1853,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="A59" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="C59" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1875,28 +1899,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="3">
+      <c r="I61" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2158,10 +2182,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="3" t="s">
+      <c r="J70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2205,28 +2229,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="A72" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="3">
+      <c r="C72" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2251,28 +2275,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="3">
+      <c r="I74" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2360,10 +2384,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="3" t="s">
+      <c r="J77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2407,28 +2431,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="3">
+      <c r="A79" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="3">
+      <c r="C79" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2453,28 +2477,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="C81" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="3">
+      <c r="D81" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="3">
+      <c r="I81" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2533,10 +2557,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2580,28 +2604,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="3">
+      <c r="C85" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2626,28 +2650,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2706,10 +2730,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="3" t="s">
+      <c r="J89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2753,28 +2777,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="3">
+      <c r="A91" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="3">
+      <c r="C91" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2799,28 +2823,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="3">
+      <c r="I93" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2879,10 +2903,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="3" t="s">
+      <c r="J95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2926,28 +2950,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="3">
+      <c r="A97" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="3">
+      <c r="C97" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2972,28 +2996,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="3">
+      <c r="C99" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="3">
+      <c r="D99" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="3">
+      <c r="I99" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3052,10 +3076,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="3" t="s">
+      <c r="J101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3099,28 +3123,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="3">
+      <c r="A103" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="3">
+      <c r="C103" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3145,28 +3169,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="3">
+      <c r="I105" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3225,10 +3249,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3272,28 +3296,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="3">
+      <c r="C109" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3318,28 +3342,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3398,10 +3422,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3445,28 +3469,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3491,28 +3515,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3629,10 +3653,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="3" t="s">
+      <c r="J121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3676,28 +3700,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="3">
+      <c r="A123" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="3">
+      <c r="C123" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3722,28 +3746,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="3">
+      <c r="C125" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="3">
+      <c r="D125" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="3">
+      <c r="I125" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3802,10 +3826,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="3" t="s">
+      <c r="J127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3849,28 +3873,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="3">
+      <c r="C129" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3895,28 +3919,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3975,10 +3999,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="3" t="s">
+      <c r="J133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4022,28 +4046,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="3">
+      <c r="A135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="3">
+      <c r="C135" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4068,28 +4092,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="3">
+      <c r="I137" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4148,10 +4172,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="3" t="s">
+      <c r="J139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4195,28 +4219,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="3">
+      <c r="A141" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="3">
+      <c r="C141" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4241,28 +4265,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="3">
+      <c r="C143" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="3">
+      <c r="D143" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="3">
+      <c r="I143" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4437,10 +4461,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="3" t="s">
+      <c r="J149" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4484,28 +4508,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="3">
+      <c r="C151" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4530,28 +4554,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4610,10 +4634,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="3" t="s">
+      <c r="J155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4657,28 +4681,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="3">
+      <c r="A157" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="3">
+      <c r="C157" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4703,28 +4727,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="3">
+      <c r="I159" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4783,10 +4807,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="3" t="s">
+      <c r="J161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4830,28 +4854,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="3">
+      <c r="A163" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="3">
+      <c r="C163" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4876,28 +4900,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="3">
+      <c r="C165" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="3">
+      <c r="D165" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="3">
+      <c r="I165" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4985,10 +5009,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="3" t="s">
+      <c r="J168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5032,28 +5056,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="3">
+      <c r="A170" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="3">
+      <c r="C170" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5078,28 +5102,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="3">
+      <c r="C172" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="3">
+      <c r="D172" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="3">
+      <c r="I172" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5158,10 +5182,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="3" t="s">
+      <c r="J174" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5205,28 +5229,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="3">
+      <c r="A176" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="3">
+      <c r="B176" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="3">
+      <c r="C176" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="3">
+      <c r="E176" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="3">
+      <c r="F176" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="3">
+      <c r="G176" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="3">
+      <c r="H176" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5251,28 +5275,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="3">
+      <c r="C178" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="3">
+      <c r="D178" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="3">
+      <c r="I178" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5389,10 +5413,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="3" t="s">
+      <c r="J182" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5436,28 +5460,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="3">
+      <c r="A184" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="3">
+      <c r="B184" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="3">
+      <c r="C184" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="3">
+      <c r="E184" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="3">
+      <c r="F184" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="G184" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="3">
+      <c r="H184" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5482,28 +5506,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="3">
+      <c r="C186" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="3">
+      <c r="D186" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="3">
+      <c r="I186" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5620,10 +5644,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="3" t="s">
+      <c r="J190" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5667,28 +5691,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="3">
+      <c r="A192" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="3">
+      <c r="C192" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5713,28 +5737,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="3">
+      <c r="I194" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5793,10 +5817,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="3" t="s">
+      <c r="J196" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5840,28 +5864,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="3">
+      <c r="A198" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="3">
+      <c r="C198" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5886,28 +5910,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="3">
+      <c r="C200" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="3">
+      <c r="D200" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="3">
+      <c r="I200" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5966,10 +5990,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="3" t="s">
+      <c r="J202" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6013,28 +6037,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="3">
+      <c r="A204" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="3">
+      <c r="C204" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6059,28 +6083,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="3">
+      <c r="B206" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="3">
+      <c r="C206" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="3">
+      <c r="D206" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="3">
+      <c r="E206" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="3">
+      <c r="F206" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="3">
+      <c r="G206" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="3">
+      <c r="H206" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="3">
+      <c r="I206" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6139,10 +6163,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="3" t="s">
+      <c r="J208" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6186,28 +6210,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="3">
+      <c r="A210" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="3">
+      <c r="B210" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="3">
+      <c r="C210" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="3">
+      <c r="E210" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="3">
+      <c r="F210" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="3">
+      <c r="G210" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="3">
+      <c r="H210" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6232,28 +6256,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="3">
+      <c r="C212" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="3">
+      <c r="D212" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="3">
+      <c r="I212" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6312,10 +6336,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="3" t="s">
+      <c r="J214" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6359,28 +6383,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="3">
+      <c r="A216" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="3">
+      <c r="C216" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6405,28 +6429,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="3">
+      <c r="C218" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="3">
+      <c r="D218" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="3">
+      <c r="I218" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6485,10 +6509,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="3" t="s">
+      <c r="J220" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6532,28 +6556,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="3">
+      <c r="A222" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="3">
+      <c r="C222" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6578,28 +6602,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="3">
+      <c r="B224" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="3">
+      <c r="C224" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="3">
+      <c r="D224" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="3">
+      <c r="E224" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="3">
+      <c r="F224" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="3">
+      <c r="G224" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="3">
+      <c r="H224" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="3">
+      <c r="I224" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6687,10 +6711,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="3" t="s">
+      <c r="J227" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6734,28 +6758,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="3">
+      <c r="A229" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="3">
+      <c r="C229" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6780,28 +6804,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="3">
+      <c r="B231" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="3">
+      <c r="C231" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="3">
+      <c r="D231" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="3">
+      <c r="E231" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="3">
+      <c r="F231" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="3">
+      <c r="G231" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="3">
+      <c r="H231" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="3">
+      <c r="I231" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6976,10 +7000,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="3" t="s">
+      <c r="J237" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7023,28 +7047,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="3">
+      <c r="A239" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="3">
+      <c r="B239" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="3">
+      <c r="C239" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="3">
+      <c r="E239" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="3">
+      <c r="F239" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="3">
+      <c r="G239" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="3">
+      <c r="H239" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7069,28 +7093,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="3">
+      <c r="C241" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="3">
+      <c r="D241" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="3">
+      <c r="I241" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7149,10 +7173,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="3" t="s">
+      <c r="J243" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7196,28 +7220,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="3">
+      <c r="A245" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="3">
+      <c r="B245" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="3">
+      <c r="C245" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="3">
+      <c r="E245" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="3">
+      <c r="F245" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="3">
+      <c r="G245" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="3">
+      <c r="H245" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7242,28 +7266,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="3">
+      <c r="C247" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="3">
+      <c r="D247" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="3">
+      <c r="I247" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7380,10 +7404,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="3" t="s">
+      <c r="J251" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7427,28 +7451,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="3">
+      <c r="A253" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="3">
+      <c r="C253" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7473,28 +7497,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="3">
+      <c r="B255" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="3">
+      <c r="C255" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="3">
+      <c r="D255" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="3">
+      <c r="E255" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="3">
+      <c r="F255" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="3">
+      <c r="G255" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="3">
+      <c r="H255" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="3">
+      <c r="I255" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7698,10 +7722,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="3" t="s">
+      <c r="J262" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7745,28 +7769,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="3">
+      <c r="A264" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="3">
+      <c r="B264" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="3">
+      <c r="C264" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="3">
+      <c r="E264" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="3">
+      <c r="F264" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="3">
+      <c r="G264" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="3">
+      <c r="H264" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7791,28 +7815,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="3">
+      <c r="B266" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="3">
+      <c r="C266" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="3">
+      <c r="D266" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="3">
+      <c r="E266" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="3">
+      <c r="F266" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="3">
+      <c r="G266" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="3">
+      <c r="H266" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="3">
+      <c r="I266" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7871,10 +7895,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="3" t="s">
+      <c r="J268" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7918,28 +7942,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="3">
+      <c r="A270" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="3">
+      <c r="B270" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="3">
+      <c r="C270" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="3">
+      <c r="E270" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="3">
+      <c r="F270" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="3">
+      <c r="G270" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="3">
+      <c r="H270" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7964,28 +7988,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="3">
+      <c r="C272" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="3">
+      <c r="I272" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8131,10 +8155,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="3" t="s">
+      <c r="J277" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8178,28 +8202,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="3">
+      <c r="A279" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="3">
+      <c r="B279" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="3">
+      <c r="C279" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="3">
+      <c r="E279" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="3">
+      <c r="F279" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="3">
+      <c r="G279" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="3">
+      <c r="H279" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8224,28 +8248,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="3">
+      <c r="B281" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="3">
+      <c r="C281" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="3">
+      <c r="D281" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="3">
+      <c r="E281" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="3">
+      <c r="F281" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="3">
+      <c r="G281" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="3">
+      <c r="H281" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="3">
+      <c r="I281" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8391,10 +8415,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="3" t="s">
+      <c r="J286" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8438,28 +8462,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="3">
+      <c r="A288" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="3">
+      <c r="B288" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="3">
+      <c r="C288" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="3">
+      <c r="E288" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="3">
+      <c r="F288" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="3">
+      <c r="G288" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="3">
+      <c r="H288" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8484,28 +8508,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="3">
+      <c r="B290" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="3">
+      <c r="C290" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="3">
+      <c r="D290" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="3">
+      <c r="E290" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="3">
+      <c r="F290" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="3">
+      <c r="G290" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="3">
+      <c r="H290" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="3">
+      <c r="I290" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8622,10 +8646,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="3" t="s">
+      <c r="J294" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8669,28 +8693,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="3">
+      <c r="A296" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="3">
+      <c r="B296" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="3">
+      <c r="C296" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="3">
+      <c r="E296" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="3">
+      <c r="F296" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="3">
+      <c r="G296" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="3">
+      <c r="H296" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8715,28 +8739,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="3">
+      <c r="B298" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="3">
+      <c r="C298" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="3">
+      <c r="D298" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="3">
+      <c r="E298" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="3">
+      <c r="F298" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="3">
+      <c r="G298" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="3">
+      <c r="H298" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="3">
+      <c r="I298" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8824,10 +8848,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="3" t="s">
+      <c r="J301" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8871,28 +8895,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="3">
+      <c r="A303" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="3">
+      <c r="B303" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="3">
+      <c r="C303" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="3">
+      <c r="E303" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="3">
+      <c r="F303" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="3">
+      <c r="G303" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="3">
+      <c r="H303" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8917,28 +8941,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="3">
+      <c r="B305" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="3">
+      <c r="C305" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="3">
+      <c r="D305" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="3">
+      <c r="E305" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="3">
+      <c r="F305" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="3">
+      <c r="G305" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="3">
+      <c r="H305" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="3">
+      <c r="I305" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9084,10 +9108,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="3" t="s">
+      <c r="J310" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9131,28 +9155,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="3">
+      <c r="A312" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="3">
+      <c r="B312" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="3">
+      <c r="C312" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="3">
+      <c r="E312" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="3">
+      <c r="F312" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="3">
+      <c r="G312" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="3">
+      <c r="H312" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9177,28 +9201,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="3">
+      <c r="B314" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="3">
+      <c r="C314" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="3">
+      <c r="D314" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="3">
+      <c r="E314" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="3">
+      <c r="F314" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="3">
+      <c r="G314" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="3">
+      <c r="H314" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="3">
+      <c r="I314" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9257,10 +9281,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="3" t="s">
+      <c r="J316" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
